--- a/ModExample/Defs/excel_data/物品_合成_蓝图.xlsx
+++ b/ModExample/Defs/excel_data/物品_合成_蓝图.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Territory\数值表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0DB0FC-8B47-4C98-B12F-3F0A13E4645C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B71DEC7-095C-4707-9B18-93597BD6A4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="1665" windowWidth="23850" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="690" windowWidth="28830" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blueprint" sheetId="1" r:id="rId1"/>
@@ -5557,7 +5557,7 @@
             <v>704027</v>
           </cell>
           <cell r="B385" t="str">
-            <v>花玫瑰</v>
+            <v>红玫瑰</v>
           </cell>
           <cell r="C385">
             <v>5000</v>
@@ -21908,8 +21908,8 @@
   <dimension ref="A1:AD208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N76" sqref="N76"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -32453,7 +32453,7 @@
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A122" s="41">
-        <v>30200400</v>
+        <v>60400100</v>
       </c>
       <c r="B122" s="15">
         <v>0</v>
@@ -32665,7 +32665,7 @@
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A125" s="41">
-        <v>60900101</v>
+        <v>60900102</v>
       </c>
       <c r="B125" s="15">
         <v>0</v>
